--- a/IndexTable2.xlsx
+++ b/IndexTable2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Apagar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Notebooks\Nowcasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet16" sheetId="16" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Demissoes" sheetId="14" state="hidden" r:id="rId3"/>
     <sheet name="ConfCons" sheetId="13" state="hidden" r:id="rId4"/>
     <sheet name="VendasVarejo" sheetId="12" state="hidden" r:id="rId5"/>
@@ -28,7 +28,7 @@
     <sheet name="Desemp" sheetId="6" state="hidden" r:id="rId14"/>
     <sheet name="Ocup" sheetId="7" state="hidden" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="715">
   <si>
     <t>No.</t>
   </si>
@@ -2278,6 +2278,9 @@
   </si>
   <si>
     <t>USDBRL</t>
+  </si>
+  <si>
+    <t>IBC-BR</t>
   </si>
 </sst>
 </file>
@@ -2775,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12151,10 +12154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="C3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12849,6 +12852,11 @@
       </c>
       <c r="H32" s="2" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/IndexTable2.xlsx
+++ b/IndexTable2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet16" sheetId="16" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="728">
   <si>
     <t>No.</t>
   </si>
@@ -2281,6 +2281,45 @@
   </si>
   <si>
     <t>IBC-BR</t>
+  </si>
+  <si>
+    <t>Source Paper</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Registered Jobs Created</t>
+  </si>
+  <si>
+    <t>Formal Employment</t>
+  </si>
+  <si>
+    <t>Month Change</t>
+  </si>
+  <si>
+    <t>YoY</t>
+  </si>
+  <si>
+    <t>Merchandise Exports</t>
+  </si>
+  <si>
+    <t>Merchandise Imports</t>
+  </si>
+  <si>
+    <t>Consumer Confidence Index</t>
+  </si>
+  <si>
+    <t>Economic Activity Index</t>
+  </si>
+  <si>
+    <t>PMI Manufacturing</t>
+  </si>
+  <si>
+    <t>Extended Retail Trade</t>
+  </si>
+  <si>
+    <t>Retail Trade: Volume</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2451,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2459,6 +2498,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2776,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,7 +2839,7 @@
     <col min="10" max="11" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="13" t="s">
         <v>710</v>
@@ -2828,8 +2871,11 @@
       <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="24" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2861,7 +2907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2893,7 +2939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2909,7 +2955,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2941,7 +2987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2971,12 +3017,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>11</v>
+        <v>718</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>694</v>
@@ -3003,7 +3049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3035,7 +3081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3051,7 +3097,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3067,7 +3113,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3083,7 +3129,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3115,7 +3161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3147,12 +3193,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>721</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>678</v>
@@ -3179,12 +3225,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>722</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>679</v>
@@ -3211,7 +3257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3227,7 +3273,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3257,7 +3303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3289,7 +3335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3305,7 +3351,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3337,7 +3383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3367,7 +3413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3399,7 +3445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3429,7 +3475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3459,7 +3505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -3491,6 +3537,48 @@
       <c r="K25" s="21" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="L26" t="s">
+        <v>716</v>
+      </c>
+      <c r="M26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="M27" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12156,7 +12244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/IndexTable2.xlsx
+++ b/IndexTable2.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Notebooks\Nowcasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Pedro Mattos\Notebooks\Nowcasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet16" sheetId="16" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Demissoes" sheetId="14" state="hidden" r:id="rId3"/>
-    <sheet name="ConfCons" sheetId="13" state="hidden" r:id="rId4"/>
-    <sheet name="VendasVarejo" sheetId="12" state="hidden" r:id="rId5"/>
-    <sheet name="ImportExport" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="IPCA" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="IPP" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="Consumo" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="PIB" sheetId="2" state="hidden" r:id="rId10"/>
-    <sheet name="PIM" sheetId="3" state="hidden" r:id="rId11"/>
-    <sheet name="RendaDisp" sheetId="4" state="hidden" r:id="rId12"/>
-    <sheet name="DesempPnad" sheetId="5" state="hidden" r:id="rId13"/>
-    <sheet name="Desemp" sheetId="6" state="hidden" r:id="rId14"/>
-    <sheet name="Ocup" sheetId="7" state="hidden" r:id="rId15"/>
+    <sheet name="New" sheetId="17" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Demissoes" sheetId="14" state="hidden" r:id="rId4"/>
+    <sheet name="ConfCons" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="VendasVarejo" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="ImportExport" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="IPCA" sheetId="10" state="hidden" r:id="rId8"/>
+    <sheet name="IPP" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Consumo" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="PIB" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="PIM" sheetId="3" state="hidden" r:id="rId12"/>
+    <sheet name="RendaDisp" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="DesempPnad" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Desemp" sheetId="6" state="hidden" r:id="rId15"/>
+    <sheet name="Ocup" sheetId="7" state="hidden" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="757">
   <si>
     <t>No.</t>
   </si>
@@ -2320,6 +2321,93 @@
   </si>
   <si>
     <t>Retail Trade: Volume</t>
+  </si>
+  <si>
+    <t>Bloomberg Code</t>
+  </si>
+  <si>
+    <t>GDP YOY %</t>
+  </si>
+  <si>
+    <t>BZGDYOY% Index</t>
+  </si>
+  <si>
+    <t>Markit PMI Manufacturing SA</t>
+  </si>
+  <si>
+    <t>MPMIBRMA Index</t>
+  </si>
+  <si>
+    <t>BZREELHT Index</t>
+  </si>
+  <si>
+    <t>BZPIIPCM Index</t>
+  </si>
+  <si>
+    <t>BZEXTOT$ Index</t>
+  </si>
+  <si>
+    <t>BZTBBALY INDEX</t>
+  </si>
+  <si>
+    <t>BZBXPBCM INDEX</t>
+  </si>
+  <si>
+    <t>BZRTFBSA INDEX</t>
+  </si>
+  <si>
+    <t>BZFGCCSA INDEX</t>
+  </si>
+  <si>
+    <t>BCSWLPD CURNCY</t>
+  </si>
+  <si>
+    <t>BZMOTRFB INDEX</t>
+  </si>
+  <si>
+    <t>BZEASA INDEX</t>
+  </si>
+  <si>
+    <t>OEBRD003 INDEX</t>
+  </si>
+  <si>
+    <t>Real Industrial Production SA</t>
+  </si>
+  <si>
+    <t>BZIPTLSA Index</t>
+  </si>
+  <si>
+    <t>Brazil Formal Employment SA</t>
+  </si>
+  <si>
+    <t>BFOETTSA Index</t>
+  </si>
+  <si>
+    <t>YoY CPI IPCA</t>
+  </si>
+  <si>
+    <t>BZPIIPCY Index</t>
+  </si>
+  <si>
+    <t>Brazil Retail Sales Volume MoM SA</t>
+  </si>
+  <si>
+    <t>BZRTRETM Index</t>
+  </si>
+  <si>
+    <t>BCSWFPD CURNCY</t>
+  </si>
+  <si>
+    <t>BZJCTOTS Index</t>
+  </si>
+  <si>
+    <t>Brazil Government Registered Job Creation Total SA</t>
+  </si>
+  <si>
+    <t>IBOV INDEX</t>
+  </si>
+  <si>
+    <t>CL1 COMDTY</t>
   </si>
 </sst>
 </file>
@@ -2821,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,6 +3677,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>108013</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>112161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>117771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>126373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>116540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>118882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>120195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>122785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>115956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>117598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>120234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>121169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>114870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>116884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>120091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>124909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>118332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>121842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>125793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>130011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>123094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>125609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>123497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>127605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>123388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>126482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28">
+        <v>126845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>129682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>123366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31">
+        <v>123902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>125917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>130447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>124485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>127754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>132070</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>139083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>131105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <v>133875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>137862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41">
+        <v>143694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>137566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>141634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44">
+        <v>145156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45">
+        <v>151063</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>146309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>150377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48">
+        <v>153564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>161859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50">
+        <v>156784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>160956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52">
+        <v>166399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>167538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54">
+        <v>160348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>167339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56">
+        <v>173837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57">
+        <v>179194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58">
+        <v>172335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59">
+        <v>176393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60">
+        <v>183015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>191380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62">
+        <v>183280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63">
+        <v>187942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64">
+        <v>190102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65">
+        <v>196089</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>188624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67">
+        <v>192057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>197599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69">
+        <v>205668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70">
+        <v>196194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71">
+        <v>200236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72">
+        <v>204456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73">
+        <v>210315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74">
+        <v>201902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75">
+        <v>201490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76">
+        <v>204578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77">
+        <v>213957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78">
+        <v>198958</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79">
+        <v>195353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80">
+        <v>195282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81">
+        <v>199472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>186476</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -4259,7 +5025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
@@ -6741,7 +7507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -7311,7 +8077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -7800,7 +8566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D382"/>
   <sheetViews>
@@ -10877,7 +11643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D168"/>
   <sheetViews>
@@ -12241,6 +13007,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G2" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D10" s="1">
+        <v>29</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G18" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" s="1">
+        <v>25</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="D22" s="12">
+        <v>41</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="G22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -12966,7 +14328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
@@ -14673,7 +16035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
@@ -15811,7 +17173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D164"/>
   <sheetViews>
@@ -17141,7 +18503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H756"/>
   <sheetViews>
@@ -27402,7 +28764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C443"/>
   <sheetViews>
@@ -30967,7 +32329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
@@ -31527,682 +32889,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
-        <v>108013</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>112161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4">
-        <v>117771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>126373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6">
-        <v>116540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>118882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>120195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>122785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>115956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11">
-        <v>117598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12">
-        <v>120234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13">
-        <v>121169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>114870</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>116884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16">
-        <v>120091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17">
-        <v>124909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18">
-        <v>118332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19">
-        <v>121842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20">
-        <v>125793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21">
-        <v>130011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22">
-        <v>123094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23">
-        <v>125609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24">
-        <v>123497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25">
-        <v>127605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26">
-        <v>123388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27">
-        <v>126482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28">
-        <v>126845</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29">
-        <v>129682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30">
-        <v>123366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31">
-        <v>123902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32">
-        <v>125917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33">
-        <v>130447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34">
-        <v>124485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35">
-        <v>127754</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36">
-        <v>132070</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37">
-        <v>139083</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38">
-        <v>131105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39">
-        <v>133875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40">
-        <v>137862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41">
-        <v>143694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42">
-        <v>137566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43">
-        <v>141634</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44">
-        <v>145156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45">
-        <v>151063</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46">
-        <v>146309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47">
-        <v>150377</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48">
-        <v>153564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49">
-        <v>161859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50">
-        <v>156784</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51">
-        <v>160956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52">
-        <v>166399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53">
-        <v>167538</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54">
-        <v>160348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55">
-        <v>167339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56">
-        <v>173837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57">
-        <v>179194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58">
-        <v>172335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59">
-        <v>176393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60">
-        <v>183015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61">
-        <v>191380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62">
-        <v>183280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63">
-        <v>187942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64">
-        <v>190102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65">
-        <v>196089</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66">
-        <v>188624</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67">
-        <v>192057</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68">
-        <v>197599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69">
-        <v>205668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70">
-        <v>196194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71">
-        <v>200236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>137</v>
-      </c>
-      <c r="B72">
-        <v>204456</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73">
-        <v>210315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74">
-        <v>201902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75">
-        <v>201490</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76">
-        <v>204578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77">
-        <v>213957</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78">
-        <v>198958</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79">
-        <v>195353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80">
-        <v>195282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81">
-        <v>199472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>147</v>
-      </c>
-      <c r="B82">
-        <v>186476</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>